--- a/output/google_maps_data_Wisata_Kota_Yogyakarta.xlsx
+++ b/output/google_maps_data_Wisata_Kota_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 373721</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.6</v>
+        <v>-7.805284</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.805284</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.364203</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Keraton+Ngayogyakarta+Hadiningrat/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5796db06c7ef:0x395271cf052b276c!8m2!3d-7.8052845!4d110.3642031!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fm%2F0vb3k_5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Keraton+Ngayogyakarta+Hadiningrat/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5796db06c7ef:0x395271cf052b276c!8m2!3d-7.8052845!4d110.3642031!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fm%2F0vb3k_5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>15 jam lalu</t>
         </is>
@@ -552,25 +546,24 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.8</v>
+        <v>-7.801397</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.801397</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.364764</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Titik+Nol+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57599a1f9397:0xebbf28ee280ce10f!8m2!3d-7.8013966!4d110.3647641!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11h3cbh9_y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Titik+Nol+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57599a1f9397:0xebbf28ee280ce10f!8m2!3d-7.8013966!4d110.3647641!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11h3cbh9_y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>9 jam lalu</t>
         </is>
@@ -593,25 +586,24 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>-7.806959</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.806959</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.363927</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kraton+Jogja/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a575c262d5709:0xf11a324efb8b84ec!8m2!3d-7.8069587!4d110.3639266!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXRibUV6VUVkbkVBReABAPoBBAgAEEc!16s%2Fg%2F122zq88b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kraton+Jogja/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a575c262d5709:0xf11a324efb8b84ec!8m2!3d-7.8069587!4d110.3639266!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXRibUV6VUVkbkVBReABAPoBBAgAEEc!16s%2Fg%2F122zq88b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -634,25 +626,24 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>-7.809979</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.809979</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.358991</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kampung+Wisata+Taman+Sari/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5793d0c2cf2b:0x276a21f8a01cbe13!8m2!3d-7.8099788!4d110.3589907!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fm%2F0b6gg2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kampung+Wisata+Taman+Sari/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5793d0c2cf2b:0x276a21f8a01cbe13!8m2!3d-7.8099788!4d110.3589907!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fm%2F0b6gg2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -679,25 +670,24 @@
           <t>(0274) 583631</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.800672</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.800672</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.367655</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Pintar+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57860f2fb9af:0xa9f6007074b62dd8!8m2!3d-7.8006715!4d110.3676551!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ5zY2llbmNlX211c2V1beABAA!16s%2Fm%2F0y6kq2z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Pintar+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57860f2fb9af:0xa9f6007074b62dd8!8m2!3d-7.8006715!4d110.3676551!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ5zY2llbmNlX211c2V1beABAA!16s%2Fm%2F0y6kq2z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -716,25 +706,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.7</v>
+        <v>-7.798249</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.798249</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.365279</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kawasan+Wisata+Malioboro/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578819c338f1:0x72aa3ad97ecccfb6!8m2!3d-7.7982487!4d110.3652793!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11dd_kfc0g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kawasan+Wisata+Malioboro/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578819c338f1:0x72aa3ad97ecccfb6!8m2!3d-7.7982487!4d110.3652793!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11dd_kfc0g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -753,25 +742,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>-7.813728</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.813728</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.362907</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Plengkung+Gading/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5796f097cf41:0x89fc8d46097f458b!8m2!3d-7.8137278!4d110.3629074!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ1oaXN0b3JpY19zaXRl4AEA!16s%2Fg%2F11btlnnlpx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Plengkung+Gading/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5796f097cf41:0x89fc8d46097f458b!8m2!3d-7.8137278!4d110.3629074!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ1oaXN0b3JpY19zaXRl4AEA!16s%2Fg%2F11btlnnlpx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -798,25 +786,24 @@
           <t>(0274) 373617</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>-7.802333</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.802333</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.363944</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Museum+Sonobudoyo+Unit+I/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578f83070a4f:0x9d10431ac43ec5ee!8m2!3d-7.8023333!4d110.3639441!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQphcnRfbXVzZXVt4AEA!16s%2Fg%2F11h1v81d_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Museum+Sonobudoyo+Unit+I/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578f83070a4f:0x9d10431ac43ec5ee!8m2!3d-7.8023333!4d110.3639441!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQphcnRfbXVzZXVt4AEA!16s%2Fg%2F11h1v81d_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>10 jam lalu</t>
         </is>
@@ -835,25 +822,24 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.6</v>
+        <v>-7.808958</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.808958</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.359842</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pulo+Kenanga/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5793e5555555:0x671d03b55e0bf9e6!8m2!3d-7.8089581!4d110.3598416!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU40YW1ZM05tdEJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F1pzt1xyzd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pulo+Kenanga/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5793e5555555:0x671d03b55e0bf9e6!8m2!3d-7.8089581!4d110.3598416!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU40YW1ZM05tdEJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F1pzt1xyzd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -880,25 +866,24 @@
           <t>(0274) 586934</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>-7.800293</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.800293</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.366164</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Museum+Benteng+Vredeburg/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5788c0b3eecf:0xb9611ce0232a9ff8!8m2!3d-7.800293!4d110.3661642!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ5oaXN0b3J5X211c2V1beABAA!16zL20vMGJyZmY4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Museum+Benteng+Vredeburg/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5788c0b3eecf:0xb9611ce0232a9ff8!8m2!3d-7.800293!4d110.3661642!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ5oaXN0b3J5X211c2V1beABAA!16zL20vMGJyZmY4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>6 jam lalu</t>
         </is>
@@ -917,25 +902,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.6</v>
+        <v>-7.811936</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.811936</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.363194</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bringin+Kembar+Alun-Alun+Selatan+(Masangin)+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5796d474c38b:0xa29ec3628bcfcdc0!8m2!3d-7.8119357!4d110.363194!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ1oaXN0b3JpY19zaXRlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJvTTJGVFJUVlJSUkFC4AEA-gEFCI8BEC0!16s%2Fg%2F11c464q4v6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -954,25 +938,24 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>-7.803968</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.803968</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.364387</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Alun-Alun+Lor+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578eff189057:0xfa69e0635f45b96d!8m2!3d-7.8039683!4d110.364387!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQljaXR5X3BhcmuaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFiV0ZEWkU5bkVBReABAPoBBAgAEDw!16s%2Fg%2F11d_d50f96?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Alun-Alun+Lor+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578eff189057:0xfa69e0635f45b96d!8m2!3d-7.8039683!4d110.364387!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQljaXR5X3BhcmuaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFiV0ZEWkU5bkVBReABAPoBBAgAEDw!16s%2Fg%2F11d_d50f96?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -995,25 +978,24 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>-7.786615</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.786615</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.381931</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Embung+Langensari/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a59d258bc6935:0xd72d8d2e7140104a!8m2!3d-7.7866148!4d110.3819311!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQljaXR5X3BhcmvgAQA!16s%2Fg%2F11bwkhd4d1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Embung+Langensari/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a59d258bc6935:0xd72d8d2e7140104a!8m2!3d-7.7866148!4d110.3819311!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQljaXR5X3BhcmvgAQA!16s%2Fg%2F11bwkhd4d1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>15 jam lalu</t>
         </is>
@@ -1032,25 +1014,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>-7.801116</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.801116</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.364617</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Monumen+Batik+Yogyakarta%EA%A7%8B%EA%A6%A9%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A6%B8%EA%A6%A9%EA%A6%BA%EA%A6%A4%EA%A7%80%EA%A6%A7%EA%A6%A0%EA%A6%B6%EA%A6%8F%EA%A7%80%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5788ccf98665:0x528f314a0e4136d4!8m2!3d-7.8011159!4d110.3646172!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQhtb251bWVudJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSWFEWXlOMHhCRUFF4AEA-gEECAAQOQ!16s%2Fg%2F11bbx04r8z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Monumen+Batik+Yogyakarta%EA%A7%8B%EA%A6%A9%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A6%B8%EA%A6%A9%EA%A6%BA%EA%A6%A4%EA%A7%80%EA%A6%A7%EA%A6%A0%EA%A6%B6%EA%A6%8F%EA%A7%80%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5788ccf98665:0x528f314a0e4136d4!8m2!3d-7.8011159!4d110.3646172!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQhtb251bWVudJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSWFEWXlOMHhCRUFF4AEA-gEECAAQOQ!16s%2Fg%2F11bbx04r8z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1069,25 +1050,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.8</v>
+        <v>-7.798686</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.798686</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.365195</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/MALIOBORO+JOGJA/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a573d72fa9355:0x5c1c527ea0a09e7e!8m2!3d-7.7986861!4d110.3651953!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnNPRmxVWHpOUlJSQULgAQD6AQQIABBC!16s%2Fg%2F11stgwgssb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1102,25 +1082,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>-7.803488</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.803488</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.366587</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pojok+beteng+jl.+ibu+ruswo/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57b7a78ed299:0x94b4d464cf436b!8m2!3d-7.8034876!4d110.3665867!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkxPRTFUUW01QlJSQULgAQD6AQQIABAX!16s%2Fg%2F11k6l4sfny?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1143,25 +1122,24 @@
           <t>0878-2565-6999</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>-7.815278</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.815278</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.398836</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kampung+Wisata+Rejowinangun/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a576c91b42bc9:0x3d6b43545f6606be!8m2!3d-7.8152776!4d110.3988359!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmxhRzlITFZWM0VBReABAPoBBAgAEEM!16s%2Fg%2F11d_2bd91y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kampung+Wisata+Rejowinangun/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a576c91b42bc9:0x3d6b43545f6606be!8m2!3d-7.8152776!4d110.3988359!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmxhRzlITFZWM0VBReABAPoBBAgAEEM!16s%2Fg%2F11d_2bd91y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1180,25 +1158,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>-7.789826</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.789826</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.364855</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Slasar+Malioboro/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a590f6437f963:0x72231067144f8eec!8m2!3d-7.7898262!4d110.3648547!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11p5r91k0v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Slasar+Malioboro/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a590f6437f963:0x72231067144f8eec!8m2!3d-7.7898262!4d110.3648547!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11p5r91k0v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>14 jam lalu</t>
         </is>
@@ -1221,25 +1198,24 @@
           <t>0838-5718-5703</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.9</v>
+        <v>-7.813393</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.813393</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.392982</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampung+Wisata+Warungboto/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57e2083b1b59:0xd58c23699705d0d0!8m2!3d-7.8133932!4d110.392982!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXRaMUJoWlZCUkVBReABAPoBBAgAEEM!16s%2Fg%2F11rfd6mky3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1258,25 +1234,24 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.1</v>
+        <v>-7.79219</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.79219</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.362151</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampung+Wisata+Sosromenduran/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5826be29978d:0xe41a56956d58b8c7!8m2!3d-7.79219!4d110.362151!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ5hbXVzZW1lbnRfcGFya5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMU1uSnBNVVpCRUFF4AEA-gEECAAQGw!16s%2Fg%2F1pzs29j25?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1295,25 +1270,24 @@
           <t>(0274) 583631</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.2</v>
+        <v>-7.800597</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.800597</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.367679</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/DINO+Adventure/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57861251a79f:0x71773acf2fb374de!8m2!3d-7.8005969!4d110.3676789!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFNVGQ1ZUU5UkVBReABAPoBBAgAEDo!16s%2Fg%2F11bxd7024b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1332,25 +1306,24 @@
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.5</v>
+        <v>-7.81283</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.81283</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.356141</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pojok+Benteng+Kulon/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5794bdc7e00f:0x8292915ace4a3dcc!8m2!3d-7.8128305!4d110.3561412!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F11b63f94cn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pojok+Benteng+Kulon/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5794bdc7e00f:0x8292915ace4a3dcc!8m2!3d-7.8128305!4d110.3561412!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F11b63f94cn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1369,25 +1342,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.4</v>
+        <v>-7.803993</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.803993</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.398124</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KEBON+BINATANG/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57001e4d0cdb:0x90c47bdaf9aefbc7!8m2!3d-7.8039932!4d110.3981235!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTNiMk5wVG1KM0VBReABAPoBBAgAEBo!16s%2Fm%2F0k707j_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KEBON+BINATANG/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57001e4d0cdb:0x90c47bdaf9aefbc7!8m2!3d-7.8039932!4d110.3981235!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTNiMk5wVG1KM0VBReABAPoBBAgAEBo!16s%2Fm%2F0k707j_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1406,25 +1378,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.4</v>
+        <v>-7.810194</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.810194</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.39328</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Situs+Warungboto/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a576dd45f6243:0x47c4825dd428cf01!8m2!3d-7.8101941!4d110.3932803!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F11h5rqc5md?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Situs+Warungboto/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a576dd45f6243:0x47c4825dd428cf01!8m2!3d-7.8101941!4d110.3932803!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F11h5rqc5md?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1443,25 +1414,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.3</v>
+        <v>-7.803549</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.803549</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.369842</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gereja+Sayidan/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57850056ca21:0xa8efa0b92ac530ca!8m2!3d-7.8035488!4d110.3698419!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5CTm5ZM1VYcG5SUkFC4AEA-gEECAAQQQ!16s%2Fg%2F11h7dclrlr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1484,25 +1454,24 @@
           <t>(0274) 417202</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.7</v>
+        <v>-7.814481</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.814481</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.386165</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampung+Wisata+Pandeyan/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57733faba62f:0x549b89f4ce016d6b!8m2!3d-7.814481!4d110.386165!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkNjV0pRVXpsblJSQULgAQD6AQQIABAe!16s%2Fg%2F11b6d00x3b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1521,25 +1490,24 @@
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.7</v>
+        <v>-7.807991</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.807991</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.394508</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Burung+Gembira+Loka/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a576eea89f16d:0x1dfe6411e397bf68!8m2!3d-7.8079912!4d110.3945075!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQN6b2-aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRhR05oZWtWQkVBReABAPoBBQipBBBH!16s%2Fg%2F11dxmdgfdb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Burung+Gembira+Loka/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a576eea89f16d:0x1dfe6411e397bf68!8m2!3d-7.8079912!4d110.3945075!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQN6b2-aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRhR05oZWtWQkVBReABAPoBBQipBBBH!16s%2Fg%2F11dxmdgfdb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1558,25 +1526,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.7</v>
+        <v>-7.796379</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.796379</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.365311</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampung+Wisata+Pajeksan/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57881f2bd693:0xf5a3b0c9a5216c3b!8m2!3d-7.7963794!4d110.3653113!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11c1q8kc_1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1595,25 +1562,24 @@
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.7</v>
+        <v>-7.807142</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.807142</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.363782</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bangsal+Sri+Manganti/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5793e5555555:0x795e394b70a8178e!8m2!3d-7.8071425!4d110.3637818!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DYW04MmN6TlJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F1pzq_63m7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bangsal+Sri+Manganti/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5793e5555555:0x795e394b70a8178e!8m2!3d-7.8071425!4d110.3637818!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DYW04MmN6TlJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F1pzq_63m7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1636,25 +1602,24 @@
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.8</v>
+        <v>-7.782922</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.782922</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.367076</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Tugu+Jogja/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a591a4d553bd5:0xc0f964003add568b!8m2!3d-7.7829218!4d110.3670757!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F122zk22q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Tugu+Jogja/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a591a4d553bd5:0xc0f964003add568b!8m2!3d-7.7829218!4d110.3670757!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARNoaXN0b3JpY2FsX2xhbmRtYXJr4AEA!16s%2Fg%2F122zk22q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>28 menit lalu</t>
         </is>
@@ -1677,25 +1642,24 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.5</v>
+        <v>-7.795561</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.795561</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.36121</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Candi+Donotirto/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a58274e35ee89:0x353853e5497dcb7c!8m2!3d-7.7955613!4d110.3612095!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBOV0pmUnpSblJSQULgAQD6AQQIABBB!16s%2Fg%2F11bx55_5pt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1718,25 +1682,24 @@
           <t>(0274) 5011201</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.6</v>
+        <v>-7.77533</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.77533</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.380453</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Taman+Kearifan+UGM/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a59ca8407bcc9:0xe70fabcb9b44a5ac!8m2!3d-7.7753299!4d110.3804534!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQRwYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TY2t4aVEzTlJSUkFC4AEA-gEECAAQMg!16s%2Fg%2F11c2nxnz95?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1755,25 +1718,24 @@
           <t>0856-4383-4442</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.8</v>
+        <v>-7.822909</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.822909</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.375689</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Sungai+Code+Jogja+Kota/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57a8934200db:0xb78e33e22bb6ee86!8m2!3d-7.8229089!4d110.3756894!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhkVGh5TUVaUkVBReABAPoBBAgAEBM!16s%2Fg%2F11h2gwpb96?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Sungai+Code+Jogja+Kota/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57a8934200db:0xb78e33e22bb6ee86!8m2!3d-7.8229089!4d110.3756894!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhkVGh5TUVaUkVBReABAPoBBAgAEBM!16s%2Fg%2F11h2gwpb96?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1800,25 +1762,24 @@
           <t>(0274) 373861</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>-7.804134</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.804134</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.397988</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gembira+Loka+Zoo/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57196b21a901:0x77e3f6112577fb0f!8m2!3d-7.8041337!4d110.3979883!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQN6b2_gAQA!16s%2Fm%2F0130d2nz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gembira+Loka+Zoo/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57196b21a901:0x77e3f6112577fb0f!8m2!3d-7.8041337!4d110.3979883!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQN6b2_gAQA!16s%2Fm%2F0130d2nz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -1838,22 +1799,21 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-7.801367</v>
+      </c>
       <c r="G36" t="n">
-        <v>-7.801367</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.364757</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Indonesian/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5700737359a3:0x7d7044d622b21e26!8m2!3d-7.8013672!4d110.3647568!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11wxvnc4sw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1868,25 +1828,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.3</v>
+        <v>-7.803843</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.803843</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.365516</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%84%EA%A6%AD%EA%A6%B8%EA%A6%A4%EA%A7%80%EA%A6%84%EA%A6%AD%EA%A6%B8%EA%A6%A4%EA%A7%80%EA%A6%88%EA%A6%A0%EA%A6%AB+(+Alun+Alun+Utara)/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a57de142886e3:0x2eaf0571db03c9b9!8m2!3d-7.8038427!4d110.3655155!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXhjWEJoU2xoQkVBReABAPoBBAgAEDo!16s%2Fg%2F11khd_bgg_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1909,25 +1868,24 @@
           <t>(0274) 373861</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.5</v>
+        <v>-7.805374</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.805374</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.39806</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Museum+Gembira+Loka+Zoo/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5768983bbcc9:0xd2ebc6bb1d5255c7!8m2!3d-7.8053736!4d110.3980597!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQZtdXNldW2aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhiVGxFVmpsM1JSQULgAQD6AQQIABAy!16s%2Fg%2F11dz2t650b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Museum+Gembira+Loka+Zoo/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a5768983bbcc9:0xd2ebc6bb1d5255c7!8m2!3d-7.8053736!4d110.3980597!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQZtdXNldW2aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhiVGxFVmpsM1JSQULgAQD6AQQIABAy!16s%2Fg%2F11dz2t650b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1954,25 +1912,24 @@
           <t>(0274) 388086</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.4</v>
+        <v>-7.816705</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.816705</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.386289</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/XT+Square/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a570cc4bbd643:0x4e21846082fd8daa!8m2!3d-7.8167055!4d110.3862889!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQ9idXNpbmVzc19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjFjSE0yVFhCblJSQULgAQD6AQQIABBH!16s%2Fg%2F1hm60r9m2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1987,25 +1944,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.7</v>
+        <v>-7.831221</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.831221</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.394138</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bendhung+Lepen/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a575796e0e4d5:0x65bc00150955aeab!8m2!3d-7.8312214!4d110.3941377!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmthMkpVUlRkQlJSQULgAQD6AQQIABBJ!16s%2Fg%2F11fks916ng?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2028,25 +1984,24 @@
           <t>(0274) 373622</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.8</v>
+        <v>-7.803907</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.803907</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.362643</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Gedhe+Kauman+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578e5026fa8d:0xdc2b00d17c73aa18!8m2!3d-7.8039072!4d110.3626429!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQZtb3NxdWXgAQA!16s%2Fg%2F11jgf7_l6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Gedhe+Kauman+Yogyakarta/@-7.8052845,110.2921053,13z/data=!4m11!1m3!2m2!1sWisata+Kota+Yogyakarta!6e1!3m6!1s0x2e7a578e5026fa8d:0xdc2b00d17c73aa18!8m2!3d-7.8039072!4d110.3626429!15sChZXaXNhdGEgS290YSBZb2d5YWthcnRhWhgiFndpc2F0YSBrb3RhIHlvZ3lha2FydGGSAQZtb3NxdWXgAQA!16s%2Fg%2F11jgf7_l6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>11 jam lalu</t>
         </is>
